--- a/2 semester/LogicBase/WorkSpace/Lab7/idk.xlsx
+++ b/2 semester/LogicBase/WorkSpace/Lab7/idk.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
   <si>
     <t>A</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>НОРМАЛЬНЫЙ ВАРИАНТ Y &lt; 0</t>
+  </si>
+  <si>
+    <t>1111 1111 1100 1100</t>
+  </si>
+  <si>
+    <t>1000 0000 0011 0100</t>
+  </si>
+  <si>
+    <t>=&gt;</t>
   </si>
 </sst>
 </file>
@@ -211,39 +220,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,9 +240,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -552,72 +562,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:O3"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" t="s">
@@ -626,24 +637,24 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="J4" t="s">
         <v>3</v>
       </c>
       <c r="K4" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
@@ -655,12 +666,12 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="I5" t="s">
         <v>0</v>
       </c>
@@ -670,12 +681,12 @@
       <c r="K5" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
@@ -687,12 +698,12 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="I6" t="s">
         <v>1</v>
       </c>
@@ -702,12 +713,12 @@
       <c r="K6" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
@@ -719,12 +730,12 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="I7" t="s">
         <v>2</v>
       </c>
@@ -734,451 +745,451 @@
       <c r="K7" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="I8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="I10" s="5" t="s">
+      <c r="G10" s="12"/>
+      <c r="I10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="8"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="I11" s="5" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="I11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="12" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="I13" s="5" t="s">
+      <c r="G13" s="12"/>
+      <c r="I13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="12" t="s">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="8"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="I14" s="5" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="12"/>
+      <c r="I14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="I15" s="5" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="I15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="8"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="12"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="12" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="I17" s="5" t="s">
+      <c r="G17" s="12"/>
+      <c r="I17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="12" t="s">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O17" s="8"/>
+      <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="I18" s="5" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="12"/>
+      <c r="I18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="8"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="12"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="I19" s="5" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="I19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="8"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="12"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="I21" s="5" t="s">
+      <c r="G21" s="12"/>
+      <c r="I21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="7" t="s">
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="8"/>
+      <c r="O21" s="12"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="I22" s="5" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="12"/>
+      <c r="I22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="8"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="12" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="I24" s="5" t="s">
+      <c r="G24" s="12"/>
+      <c r="I24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="12" t="s">
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O24" s="8"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="I25" s="5" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="12"/>
+      <c r="I25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="8"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-      <c r="I26" s="5" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="12"/>
+      <c r="I26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="8"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="12"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="12" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="I28" s="5" t="s">
+      <c r="G28" s="12"/>
+      <c r="I28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="12" t="s">
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O28" s="8"/>
+      <c r="O28" s="12"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-      <c r="I29" s="5" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="12"/>
+      <c r="I29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="8"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="12"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="4"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="15"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="15" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="15" t="s">
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N31" s="1" t="s">
@@ -1189,39 +1200,98 @@
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="1">
         <v>18</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="8">
         <v>24</v>
       </c>
       <c r="I32" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="1">
-        <v>18</v>
-      </c>
-      <c r="N32" s="16">
-        <v>24</v>
+      <c r="J32" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="3:14">
+      <c r="J33" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="3:14">
+      <c r="J34" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N34" s="8">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14">
+      <c r="C36" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14">
+      <c r="C37" s="18" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:O29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
+  <mergeCells count="61">
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F13:G15"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:G26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:G29"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="J21:M21"/>
     <mergeCell ref="N21:O22"/>
@@ -1238,44 +1308,11 @@
     <mergeCell ref="N17:O19"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J19:M19"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:G26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F13:G15"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:O29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/2 semester/LogicBase/WorkSpace/Lab7/idk.xlsx
+++ b/2 semester/LogicBase/WorkSpace/Lab7/idk.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="117">
   <si>
     <t>A</t>
   </si>
@@ -81,9 +81,6 @@
     <t>0000 0100 1110 1000</t>
   </si>
   <si>
-    <t>A - B / 4 + B</t>
-  </si>
-  <si>
     <t>ax</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>add ax, bx</t>
   </si>
   <si>
-    <t>0000 1001 1101 0110</t>
-  </si>
-  <si>
     <t>A - B / 4 + B + C/4</t>
   </si>
   <si>
@@ -154,13 +148,232 @@
   </si>
   <si>
     <t>=&gt;</t>
+  </si>
+  <si>
+    <t>A - B / 4 - B</t>
+  </si>
+  <si>
+    <t>0000 0000 000 0110</t>
+  </si>
+  <si>
+    <t>A - B / 4 - B + C/4</t>
+  </si>
+  <si>
+    <t>0000 0000 1111 1111</t>
+  </si>
+  <si>
+    <t>0000 0100 1111 1011</t>
+  </si>
+  <si>
+    <t>1111 1110 1111 1001</t>
+  </si>
+  <si>
+    <t>1111 1111 1111 0011</t>
+  </si>
+  <si>
+    <t>Переполнение при B/4 + B</t>
+  </si>
+  <si>
+    <t>7AFE</t>
+  </si>
+  <si>
+    <t>0111 1010 1111 1110</t>
+  </si>
+  <si>
+    <t>0001 1110 1011 1111</t>
+  </si>
+  <si>
+    <t>1001 1001 1011 1101</t>
+  </si>
+  <si>
+    <t>OF = 0</t>
+  </si>
+  <si>
+    <t>B / 16</t>
+  </si>
+  <si>
+    <t>0000 0111 1010 1111</t>
+  </si>
+  <si>
+    <t>add bx, ax</t>
+  </si>
+  <si>
+    <t>sar ax, 2</t>
+  </si>
+  <si>
+    <t>A / 4</t>
+  </si>
+  <si>
+    <t>0000 0000 1111 1101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B / 16 + B / 4</t>
+  </si>
+  <si>
+    <t>0010 0110 0110 1110</t>
+  </si>
+  <si>
+    <t>1101 1010 1000 1111</t>
+  </si>
+  <si>
+    <t>C / 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 0000 0011 1110 </t>
+  </si>
+  <si>
+    <t>A / 4 - B / 16 - B / 4</t>
+  </si>
+  <si>
+    <t>A / 4 - B / 16 -           - B / 4 + C/16</t>
+  </si>
+  <si>
+    <t>16(A / 4 - B / 16 -           - B / 4 + C/16)</t>
+  </si>
+  <si>
+    <t>1101 1010 1100 1101</t>
+  </si>
+  <si>
+    <t>1010 1100 1101 0000</t>
+  </si>
+  <si>
+    <t>1101 0011 0011 0000</t>
+  </si>
+  <si>
+    <t>Y = 4(1012 - 1/4 * 31486 - 31486 + 1003/4) = -152 368</t>
+  </si>
+  <si>
+    <t>-21 296 - 2 * 2^16</t>
+  </si>
+  <si>
+    <t>-152 368</t>
+  </si>
+  <si>
+    <t>0111 1111 1111 1111</t>
+  </si>
+  <si>
+    <t>0000 0100 0000 0000</t>
+  </si>
+  <si>
+    <t>0011 1111 0000 0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 1111 1100 0000 </t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>7FFF</t>
+  </si>
+  <si>
+    <t>0000 0000 0100 0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 0001 0000 0000 </t>
+  </si>
+  <si>
+    <t>0000 0101 0000 0000</t>
+  </si>
+  <si>
+    <t>0111 1010 1111 1111</t>
+  </si>
+  <si>
+    <t>1000 1010 1011 1111</t>
+  </si>
+  <si>
+    <t>0000 0001 0100 0000</t>
+  </si>
+  <si>
+    <t>0001 1111 1111 1111</t>
+  </si>
+  <si>
+    <t>0000 0011 1111 0000</t>
+  </si>
+  <si>
+    <t>A / 4 - B / 16 -             - B / 4 + C/16</t>
+  </si>
+  <si>
+    <t>0000 0000 0011 1111</t>
+  </si>
+  <si>
+    <t>3F00</t>
+  </si>
+  <si>
+    <t>0010 0010 1010 1111</t>
+  </si>
+  <si>
+    <t>0010 1010 1111 0000</t>
+  </si>
+  <si>
+    <t>10992 + 2 * 2^16</t>
+  </si>
+  <si>
+    <t>142 064</t>
+  </si>
+  <si>
+    <t>Y = 4(32767 - 1/4 * 1024 - 1024 + 16128/4) = 142 064</t>
+  </si>
+  <si>
+    <t>0000 0001 0000 0000</t>
+  </si>
+  <si>
+    <t>03F0</t>
+  </si>
+  <si>
+    <t>0400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 0011 1111 0000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 0000 1111 1100 </t>
+  </si>
+  <si>
+    <t>0000 0000 1111 1100</t>
+  </si>
+  <si>
+    <t>0000 0100 1110 1100</t>
+  </si>
+  <si>
+    <t>0000 0001 0011 1011</t>
+  </si>
+  <si>
+    <t>0100 0000 0000 0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000 0010 0000 0000</t>
+  </si>
+  <si>
+    <t>0110 0100 1110 1100</t>
+  </si>
+  <si>
+    <t>0110 0000 0000 0000</t>
+  </si>
+  <si>
+    <t>0110 0001 0000 0000</t>
+  </si>
+  <si>
+    <t>0001 1001 0011 1011</t>
+  </si>
+  <si>
+    <t>0001 1000 0000 0000</t>
+  </si>
+  <si>
+    <t>0001 1100 0000 0000</t>
+  </si>
+  <si>
+    <t>1100 0000 0000 0000</t>
+  </si>
+  <si>
+    <t>64EC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +382,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,8 +404,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -216,11 +443,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,34 +504,101 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -562,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -574,26 +905,28 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -608,55 +941,58 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="16" t="s">
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="J4" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="10"/>
+      <c r="K4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -666,29 +1002,30 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="I5" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="10"/>
+      <c r="J5" t="s">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1012</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="M5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -698,29 +1035,30 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="I6" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="10"/>
+      <c r="J6" t="s">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1020</v>
       </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -730,433 +1068,450 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="I7" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="10"/>
+      <c r="J7" t="s">
         <v>2</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1003</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="M7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="14" t="s">
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="10"/>
+      <c r="J8" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="I8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="13" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="I10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="12"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="I11" s="3" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="9"/>
+      <c r="J11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="12"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="I13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11" t="s">
+      <c r="G13" s="21"/>
+      <c r="H13" s="9"/>
+      <c r="J13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="21"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12"/>
-      <c r="I14" s="3" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="9"/>
+      <c r="J14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="12"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="K14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="21"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
-      <c r="I15" s="3" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="9"/>
+      <c r="J15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="K15" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="21"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="9"/>
+      <c r="J17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="21"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="12"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="3" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="9"/>
+      <c r="J18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="21"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="I17" s="3" t="s">
+      <c r="B19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="9"/>
+      <c r="J19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17" s="12"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="12"/>
-      <c r="I18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="12"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
+      <c r="K19" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="21"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="12"/>
-      <c r="I19" s="3" t="s">
+      <c r="G21" s="21"/>
+      <c r="H21" s="9"/>
+      <c r="J21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="12"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="I21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="12"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="21"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="9"/>
+      <c r="J22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="21"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="9"/>
+      <c r="J24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="21"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="9"/>
+      <c r="J25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="21"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="12"/>
-      <c r="I22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="B26" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="9"/>
+      <c r="J26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="12"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="K26" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="21"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="9"/>
+      <c r="J28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" s="21"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="9"/>
+      <c r="J29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="I24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O24" s="12"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="12"/>
-      <c r="I25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="12"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="12"/>
-      <c r="I26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="I28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O28" s="12"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="12"/>
-      <c r="I29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="12"/>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="K29" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -1164,106 +1519,1981 @@
       <c r="E30" s="4"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="4"/>
+      <c r="H30" s="9"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="5"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="7"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="B31" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="B31" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="7" t="s">
+      <c r="K31" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="1">
         <v>18</v>
       </c>
       <c r="F32" s="8">
         <v>24</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="K33" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="K34" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="1">
+        <v>-32</v>
+      </c>
+      <c r="O34" s="8">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="J37" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="35"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="10"/>
+      <c r="K38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" t="s">
+        <v>4</v>
+      </c>
+      <c r="M38" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>1012</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="10"/>
+      <c r="J39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>32767</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>31486</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="10"/>
+      <c r="J40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1024</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>1003</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="10"/>
+      <c r="J41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>16128</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M41" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="10"/>
+      <c r="J42" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="9"/>
+      <c r="J44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="12"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="9"/>
+      <c r="J45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="12"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="P47" s="21"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="29"/>
+      <c r="J48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="21"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="29"/>
+      <c r="J49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="21"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="21"/>
+      <c r="H51" s="9"/>
+      <c r="J51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="12"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="9"/>
+      <c r="J52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="12"/>
+    </row>
+    <row r="53" spans="1:17" s="2" customFormat="1">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="J53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="6"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="21"/>
+      <c r="H54" s="9"/>
+      <c r="Q54" s="12"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="9"/>
+      <c r="J55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="12"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="21"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="21"/>
+      <c r="H57" s="9"/>
+      <c r="Q57" s="12"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="9"/>
+      <c r="J58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="9"/>
+      <c r="J59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="29"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="J60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="29"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="21"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="9"/>
+      <c r="J62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="12"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="H63" s="9"/>
+      <c r="J63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="12"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" s="21"/>
+      <c r="H64" s="9"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="12"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="21"/>
+      <c r="J65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P65" s="21"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="9"/>
+      <c r="J66" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K66" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="12"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="H67" s="9"/>
+      <c r="Q67" s="12"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68" s="21"/>
+      <c r="J68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" s="21"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="9"/>
+      <c r="J69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="12"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="H70" s="9"/>
+      <c r="J70" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K70" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="12"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G71" s="32"/>
+      <c r="H71" s="9"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="32"/>
+      <c r="J72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P72" s="21"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="9"/>
+      <c r="J73" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K73" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="12"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="H74" s="9"/>
+      <c r="Q74" s="12"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G75" s="32"/>
+      <c r="H75" s="9"/>
+      <c r="J75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="12"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="32"/>
+      <c r="J76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="21"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="2"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="9"/>
+      <c r="J77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K77" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="21"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="B78" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="17" t="s">
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="J79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P79" s="21"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="B80" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-    </row>
-    <row r="33" spans="3:14">
-      <c r="J33" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-    </row>
-    <row r="34" spans="3:14">
-      <c r="J34" s="17" t="s">
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="J80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="21"/>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="B81" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="10">
+        <v>-5330</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G81" s="24"/>
+      <c r="H81" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="15" customHeight="1">
+      <c r="J82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P82" s="32"/>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="J83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K83" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="33"/>
+      <c r="P83" s="32"/>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="35"/>
+      <c r="J84" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K84" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="23"/>
+      <c r="O84" s="33"/>
+      <c r="P84" s="32"/>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="13"/>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>25836</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="13"/>
+      <c r="J86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P86" s="32"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>1008</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="13"/>
+      <c r="J87" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K87" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="33"/>
+      <c r="P87" s="32"/>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>1024</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="13"/>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="13"/>
+      <c r="K89" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O89" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="J90" t="s">
+        <v>32</v>
+      </c>
+      <c r="K90" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="L90" s="28"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="13">
+        <v>10992</v>
+      </c>
+      <c r="O90" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="42"/>
+      <c r="H91" s="12"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="28"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="12"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="28"/>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="40"/>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="40"/>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="40"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="14"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="1">
-        <v>-32</v>
-      </c>
-      <c r="N34" s="8">
-        <v>-52</v>
-      </c>
-    </row>
-    <row r="36" spans="3:14">
-      <c r="C36" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14">
-      <c r="C37" s="18" t="s">
-        <v>44</v>
-      </c>
+      <c r="G98" s="40"/>
+      <c r="H98" s="12"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="12"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="H101" s="12"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" s="42"/>
+      <c r="H102" s="12"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="42"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="H104" s="12"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G105" s="40"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="40"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="40"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="2"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="41"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="38"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G109" s="40"/>
+      <c r="H109" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="29"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="37"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="37"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G112" s="42"/>
+      <c r="H112" s="12"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C113" s="38"/>
+      <c r="D113" s="38"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="12"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="14"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="12"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" s="42"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="12"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="H117" s="12"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C118" s="38"/>
+      <c r="D118" s="38"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G118" s="40"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" s="38"/>
+      <c r="D119" s="38"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="40"/>
+      <c r="H119" s="12"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B120" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" s="38"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="40"/>
+      <c r="H120" s="12"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="14"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C122" s="38"/>
+      <c r="D122" s="38"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G122" s="42"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B123" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C123" s="38"/>
+      <c r="D123" s="38"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="42"/>
+      <c r="H123" s="12"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="H124" s="12"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" s="38"/>
+      <c r="D125" s="38"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G125" s="40"/>
+      <c r="H125" s="12"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C126" s="38"/>
+      <c r="D126" s="38"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="40"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C127" s="38"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="40"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C129" s="38"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="39"/>
+      <c r="F129" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G129" s="42"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C130" s="38"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="39"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="42"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C132" s="38"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G132" s="43"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C133" s="38"/>
+      <c r="D133" s="38"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="43"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C134" s="38"/>
+      <c r="D134" s="38"/>
+      <c r="E134" s="39"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="43"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C136" s="38"/>
+      <c r="D136" s="38"/>
+      <c r="E136" s="39"/>
+      <c r="F136" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G136" s="43"/>
+      <c r="H136" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C137" s="38"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="43"/>
+      <c r="H137" s="29"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="13"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="B140" s="27"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J34:L34"/>
+  <mergeCells count="223">
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F112:G113"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="F129:G130"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="F132:G134"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="F136:G137"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="F118:G120"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:G123"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="F125:G127"/>
+    <mergeCell ref="B126:E126"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="F105:G107"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="F109:G110"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="F115:G116"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="F94:G96"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="F98:G100"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="F102:G103"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="F91:G92"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="O79:P80"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="O82:P84"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="O86:P87"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="O51:P53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O55:P56"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="O58:P60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="O68:P70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="O72:P73"/>
+    <mergeCell ref="O75:P77"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="O62:P63"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="O47:P49"/>
+    <mergeCell ref="Q58:Q60"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="J42:P42"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="O44:P45"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F13:G15"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:P29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M7:P7"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
@@ -1276,43 +3506,84 @@
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="F21:G22"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
     <mergeCell ref="A8:G8"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="O24:P26"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O13:P15"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="O17:P19"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="K10:N10"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:G26"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:O22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:O26"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:O15"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:O19"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:O29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:G45"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:G49"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:G66"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:G69"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:G52"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:G59"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="F54:G55"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:G73"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/2 semester/LogicBase/WorkSpace/Lab7/idk.xlsx
+++ b/2 semester/LogicBase/WorkSpace/Lab7/idk.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="118">
   <si>
     <t>A</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>64EC</t>
+  </si>
+  <si>
+    <t>4(A - B / 4 + B + C/4)</t>
   </si>
 </sst>
 </file>
@@ -531,19 +534,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -552,20 +587,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -575,29 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -906,25 +909,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="4"/>
@@ -944,26 +947,26 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="18"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:17">
       <c r="B4" t="s">
@@ -972,12 +975,12 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="10"/>
       <c r="K4" t="s">
         <v>3</v>
@@ -985,12 +988,12 @@
       <c r="L4" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -1002,12 +1005,12 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="10"/>
       <c r="J5" t="s">
         <v>0</v>
@@ -1018,12 +1021,12 @@
       <c r="L5" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
@@ -1035,12 +1038,12 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="10"/>
       <c r="J6" t="s">
         <v>1</v>
@@ -1051,12 +1054,12 @@
       <c r="L6" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
@@ -1068,12 +1071,12 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="10"/>
       <c r="J7" t="s">
         <v>2</v>
@@ -1084,432 +1087,432 @@
       <c r="L7" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="10"/>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="20" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="9"/>
       <c r="J10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="20" t="s">
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="21"/>
+      <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="9"/>
       <c r="J11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="21"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="29"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="30" t="s">
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="9"/>
       <c r="J13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="30" t="s">
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="21"/>
+      <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="9"/>
       <c r="J14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="21"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="29"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="9"/>
       <c r="J15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="21"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="29"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="30" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="9"/>
       <c r="J17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="30" t="s">
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P17" s="21"/>
+      <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="9"/>
       <c r="J18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="21"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="29"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="9"/>
       <c r="J19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="21"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="29"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="20" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="9"/>
       <c r="J21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="20" t="s">
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="P21" s="21"/>
+      <c r="P21" s="29"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="9"/>
       <c r="J22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="29"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="30" t="s">
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="9"/>
       <c r="J24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="30" t="s">
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="P24" s="21"/>
+      <c r="P24" s="29"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="9"/>
       <c r="J25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="21"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="29"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="9"/>
       <c r="J26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="21"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="29"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="30" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="21"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="9"/>
       <c r="J28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="P28" s="21"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="9"/>
       <c r="J29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="21"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="29"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="2"/>
@@ -1529,22 +1532,22 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="21" t="s">
+      <c r="K31" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
       <c r="N31" s="7" t="s">
         <v>33</v>
       </c>
@@ -1556,11 +1559,11 @@
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="1">
         <v>18</v>
       </c>
@@ -1570,25 +1573,25 @@
       <c r="J32" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="K34" s="27" t="s">
+      <c r="K34" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
       <c r="N34" s="1">
         <v>-32</v>
       </c>
@@ -1600,26 +1603,26 @@
       <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="J37" s="25" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="J37" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="35"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="20"/>
     </row>
     <row r="38" spans="1:17">
       <c r="B38" t="s">
@@ -1628,12 +1631,12 @@
       <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="10"/>
       <c r="K38" t="s">
         <v>3</v>
@@ -1641,12 +1644,12 @@
       <c r="L38" t="s">
         <v>4</v>
       </c>
-      <c r="M38" s="28" t="s">
+      <c r="M38" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
       <c r="Q38" s="13"/>
     </row>
     <row r="39" spans="1:17">
@@ -1659,12 +1662,12 @@
       <c r="C39" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
       <c r="H39" s="10"/>
       <c r="J39" t="s">
         <v>0</v>
@@ -1675,12 +1678,12 @@
       <c r="L39" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M39" s="27" t="s">
+      <c r="M39" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
       <c r="Q39" s="13"/>
     </row>
     <row r="40" spans="1:17">
@@ -1693,12 +1696,12 @@
       <c r="C40" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
       <c r="H40" s="10"/>
       <c r="J40" t="s">
         <v>1</v>
@@ -1709,12 +1712,12 @@
       <c r="L40" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="27" t="s">
+      <c r="M40" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
       <c r="Q40" s="13"/>
     </row>
     <row r="41" spans="1:17">
@@ -1727,12 +1730,12 @@
       <c r="C41" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
       <c r="H41" s="10"/>
       <c r="J41" t="s">
         <v>2</v>
@@ -1743,172 +1746,172 @@
       <c r="L41" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="M41" s="27" t="s">
+      <c r="M41" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
       <c r="Q41" s="13"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
       <c r="H42" s="10"/>
-      <c r="J42" s="28" t="s">
+      <c r="J42" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
       <c r="Q42" s="13"/>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="20" t="s">
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="21"/>
+      <c r="G44" s="29"/>
       <c r="H44" s="9"/>
       <c r="J44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K44" s="22" t="s">
+      <c r="K44" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="20" t="s">
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P44" s="21"/>
+      <c r="P44" s="29"/>
       <c r="Q44" s="12"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="29"/>
       <c r="H45" s="9"/>
       <c r="J45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K45" s="22" t="s">
+      <c r="K45" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="21"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="29"/>
       <c r="Q45" s="12"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="30" t="s">
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="29" t="s">
+      <c r="G47" s="29"/>
+      <c r="H47" s="23" t="s">
         <v>56</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="22" t="s">
+      <c r="K47" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="30" t="s">
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="P47" s="21"/>
+      <c r="P47" s="29"/>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="29"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="23"/>
       <c r="J48" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K48" s="22" t="s">
+      <c r="K48" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="21"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="29"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="29"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="23"/>
       <c r="J49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K49" s="22" t="s">
+      <c r="K49" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="21"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="29"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="14"/>
@@ -1933,56 +1936,56 @@
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="20" t="s">
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="G51" s="21"/>
+      <c r="G51" s="29"/>
       <c r="H51" s="9"/>
       <c r="J51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K51" s="22" t="s">
+      <c r="K51" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="30" t="s">
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P51" s="21"/>
+      <c r="P51" s="29"/>
       <c r="Q51" s="12"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="29"/>
       <c r="H52" s="9"/>
       <c r="J52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="22" t="s">
+      <c r="K52" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="21"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="29"/>
       <c r="Q52" s="12"/>
     </row>
     <row r="53" spans="1:17" s="2" customFormat="1">
@@ -1997,30 +2000,30 @@
       <c r="J53" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K53" s="22" t="s">
+      <c r="K53" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="21"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="29"/>
       <c r="Q53" s="6"/>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="20" t="s">
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="21"/>
+      <c r="G54" s="29"/>
       <c r="H54" s="9"/>
       <c r="Q54" s="12"/>
     </row>
@@ -2028,57 +2031,57 @@
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="21"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="29"/>
       <c r="H55" s="9"/>
       <c r="J55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K55" s="22" t="s">
+      <c r="K55" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="20" t="s">
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="P55" s="21"/>
+      <c r="P55" s="29"/>
       <c r="Q55" s="12"/>
     </row>
     <row r="56" spans="1:17">
       <c r="J56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K56" s="22" t="s">
+      <c r="K56" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="21"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="29"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="30" t="s">
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="29"/>
       <c r="H57" s="9"/>
       <c r="Q57" s="12"/>
     </row>
@@ -2086,29 +2089,29 @@
       <c r="A58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="29"/>
       <c r="H58" s="9"/>
       <c r="J58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K58" s="22" t="s">
+      <c r="K58" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="30" t="s">
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="29" t="s">
+      <c r="P58" s="29"/>
+      <c r="Q58" s="23" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2116,27 +2119,27 @@
       <c r="A59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="21"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="29"/>
       <c r="H59" s="9"/>
       <c r="J59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K59" s="22" t="s">
+      <c r="K59" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="29"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="23"/>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="14"/>
@@ -2150,64 +2153,64 @@
       <c r="J60" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K60" s="22" t="s">
+      <c r="K60" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="29"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="23"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="20" t="s">
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G61" s="21"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
+      <c r="G61" s="29"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="21"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="29"/>
       <c r="H62" s="9"/>
       <c r="J62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K62" s="22" t="s">
+      <c r="K62" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="20" t="s">
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="P62" s="21"/>
+      <c r="P62" s="29"/>
       <c r="Q62" s="12"/>
     </row>
     <row r="63" spans="1:17">
@@ -2215,30 +2218,30 @@
       <c r="J63" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K63" s="22" t="s">
+      <c r="K63" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="21"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="29"/>
       <c r="Q63" s="12"/>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="30" t="s">
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G64" s="21"/>
+      <c r="G64" s="29"/>
       <c r="H64" s="9"/>
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
@@ -2253,52 +2256,52 @@
       <c r="A65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="21"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="29"/>
       <c r="J65" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K65" s="22" t="s">
+      <c r="K65" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="20" t="s">
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P65" s="21"/>
+      <c r="P65" s="29"/>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="21"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="29"/>
       <c r="H66" s="9"/>
       <c r="J66" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K66" s="22" t="s">
+      <c r="K66" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="21"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="29"/>
       <c r="Q66" s="12"/>
     </row>
     <row r="67" spans="1:17">
@@ -2309,54 +2312,54 @@
       <c r="A68" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="20" t="s">
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G68" s="21"/>
+      <c r="G68" s="29"/>
       <c r="J68" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K68" s="22" t="s">
+      <c r="K68" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="L68" s="23"/>
-      <c r="M68" s="23"/>
-      <c r="N68" s="23"/>
-      <c r="O68" s="30" t="s">
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P68" s="21"/>
+      <c r="P68" s="29"/>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="21"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="29"/>
       <c r="H69" s="9"/>
       <c r="J69" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K69" s="22" t="s">
+      <c r="K69" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="21"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="29"/>
       <c r="Q69" s="12"/>
     </row>
     <row r="70" spans="1:17">
@@ -2364,30 +2367,30 @@
       <c r="J70" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K70" s="22" t="s">
+      <c r="K70" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="L70" s="23"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23"/>
-      <c r="O70" s="20"/>
-      <c r="P70" s="21"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="29"/>
       <c r="Q70" s="12"/>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="31" t="s">
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G71" s="32"/>
+      <c r="G71" s="41"/>
       <c r="H71" s="9"/>
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
@@ -2402,52 +2405,52 @@
       <c r="A72" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="32"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="41"/>
       <c r="J72" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K72" s="22" t="s">
+      <c r="K72" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="L72" s="23"/>
-      <c r="M72" s="23"/>
-      <c r="N72" s="23"/>
-      <c r="O72" s="20" t="s">
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="P72" s="21"/>
+      <c r="P72" s="29"/>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="32"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="41"/>
       <c r="H73" s="9"/>
       <c r="J73" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K73" s="22" t="s">
+      <c r="K73" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="L73" s="23"/>
-      <c r="M73" s="23"/>
-      <c r="N73" s="23"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="21"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="29"/>
       <c r="Q73" s="12"/>
     </row>
     <row r="74" spans="1:17">
@@ -2458,55 +2461,55 @@
       <c r="A75" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="31" t="s">
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="G75" s="32"/>
+      <c r="G75" s="41"/>
       <c r="H75" s="9"/>
       <c r="J75" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K75" s="22" t="s">
+      <c r="K75" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="L75" s="23"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
-      <c r="O75" s="30" t="s">
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="P75" s="21"/>
+      <c r="P75" s="29"/>
       <c r="Q75" s="12"/>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="32"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="41"/>
       <c r="J76" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K76" s="22" t="s">
+      <c r="K76" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="L76" s="23"/>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="21"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="29"/>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="2"/>
@@ -2519,21 +2522,21 @@
       <c r="J77" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K77" s="22" t="s">
+      <c r="K77" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="L77" s="23"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="20"/>
-      <c r="P77" s="21"/>
+      <c r="L77" s="40"/>
+      <c r="M77" s="40"/>
+      <c r="N77" s="40"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="29"/>
     </row>
     <row r="78" spans="1:17">
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
       <c r="E78" s="9" t="s">
         <v>33</v>
       </c>
@@ -2545,56 +2548,56 @@
       <c r="A79" t="s">
         <v>32</v>
       </c>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
       <c r="J79" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K79" s="22" t="s">
+      <c r="K79" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="L79" s="23"/>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
-      <c r="O79" s="20" t="s">
+      <c r="L79" s="40"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
+      <c r="O79" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="P79" s="21"/>
+      <c r="P79" s="29"/>
     </row>
     <row r="80" spans="1:17">
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
       <c r="J80" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K80" s="22" t="s">
+      <c r="K80" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="L80" s="23"/>
-      <c r="M80" s="23"/>
-      <c r="N80" s="23"/>
-      <c r="O80" s="20"/>
-      <c r="P80" s="21"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="29"/>
     </row>
     <row r="81" spans="1:17">
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
       <c r="E81" s="10">
         <v>-5330</v>
       </c>
-      <c r="F81" s="24" t="s">
+      <c r="F81" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G81" s="24"/>
+      <c r="G81" s="31"/>
       <c r="H81" s="19" t="s">
         <v>76</v>
       </c>
@@ -2603,52 +2606,52 @@
       <c r="J82" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K82" s="22" t="s">
+      <c r="K82" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="L82" s="23"/>
-      <c r="M82" s="23"/>
-      <c r="N82" s="23"/>
-      <c r="O82" s="31" t="s">
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="P82" s="32"/>
+      <c r="P82" s="41"/>
     </row>
     <row r="83" spans="1:17">
       <c r="J83" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K83" s="22" t="s">
+      <c r="K83" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="L83" s="23"/>
-      <c r="M83" s="23"/>
-      <c r="N83" s="23"/>
-      <c r="O83" s="33"/>
-      <c r="P83" s="32"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="41"/>
     </row>
     <row r="84" spans="1:17">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="35"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="20"/>
       <c r="J84" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K84" s="22" t="s">
+      <c r="K84" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="L84" s="23"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="23"/>
-      <c r="O84" s="33"/>
-      <c r="P84" s="32"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="41"/>
     </row>
     <row r="85" spans="1:17">
       <c r="B85" t="s">
@@ -2657,12 +2660,12 @@
       <c r="C85" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="28" t="s">
+      <c r="D85" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
       <c r="H85" s="13"/>
     </row>
     <row r="86" spans="1:17">
@@ -2675,26 +2678,26 @@
       <c r="C86" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D86" s="27" t="s">
+      <c r="D86" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
       <c r="H86" s="13"/>
       <c r="J86" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K86" s="22" t="s">
+      <c r="K86" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="L86" s="23"/>
-      <c r="M86" s="23"/>
-      <c r="N86" s="23"/>
-      <c r="O86" s="31" t="s">
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="P86" s="32"/>
+      <c r="P86" s="41"/>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" t="s">
@@ -2706,24 +2709,24 @@
       <c r="C87" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D87" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
       <c r="H87" s="13"/>
       <c r="J87" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K87" s="22" t="s">
+      <c r="K87" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="L87" s="23"/>
-      <c r="M87" s="23"/>
-      <c r="N87" s="23"/>
-      <c r="O87" s="33"/>
-      <c r="P87" s="32"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="41"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" t="s">
@@ -2735,30 +2738,30 @@
       <c r="C88" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D88" s="27" t="s">
+      <c r="D88" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
       <c r="H88" s="13"/>
     </row>
     <row r="89" spans="1:17">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
       <c r="H89" s="13"/>
-      <c r="K89" s="21" t="s">
+      <c r="K89" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
       <c r="N89" s="12" t="s">
         <v>33</v>
       </c>
@@ -2770,18 +2773,18 @@
       <c r="J90" t="s">
         <v>32</v>
       </c>
-      <c r="K90" s="27" t="s">
+      <c r="K90" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L90" s="28"/>
-      <c r="M90" s="28"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
       <c r="N90" s="13">
         <v>10992</v>
       </c>
-      <c r="O90" s="24" t="s">
+      <c r="O90" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="24"/>
+      <c r="P90" s="31"/>
       <c r="Q90" s="19" t="s">
         <v>97</v>
       </c>
@@ -2790,78 +2793,78 @@
       <c r="A91" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="20" t="s">
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="42"/>
+      <c r="G91" s="28"/>
       <c r="H91" s="12"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="28"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="42"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="28"/>
       <c r="H92" s="12"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="28"/>
-      <c r="M92" s="28"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="30" t="s">
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G94" s="40"/>
+      <c r="G94" s="35"/>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="40"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="35"/>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B96" s="36" t="s">
+      <c r="B96" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="40"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="35"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="14"/>
@@ -2877,44 +2880,44 @@
       <c r="A98" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C98" s="38"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="30" t="s">
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G98" s="40"/>
+      <c r="G98" s="35"/>
       <c r="H98" s="12"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B99" s="36" t="s">
+      <c r="B99" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="40"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="35"/>
       <c r="H99" s="12"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="36" t="s">
+      <c r="B100" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="40"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="35"/>
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8">
@@ -2924,30 +2927,30 @@
       <c r="A102" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B102" s="36" t="s">
+      <c r="B102" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="20" t="s">
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G102" s="42"/>
+      <c r="G102" s="28"/>
       <c r="H102" s="12"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="42"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="28"/>
     </row>
     <row r="104" spans="1:8">
       <c r="H104" s="12"/>
@@ -2956,42 +2959,42 @@
       <c r="A105" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="30" t="s">
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="G105" s="40"/>
+      <c r="G105" s="35"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="40"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="35"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B107" s="36" t="s">
+      <c r="B107" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="39"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="40"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="35"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2"/>
@@ -2999,24 +3002,24 @@
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B109" s="36" t="s">
+      <c r="B109" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="30" t="s">
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G109" s="40"/>
-      <c r="H109" s="29" t="s">
+      <c r="G109" s="35"/>
+      <c r="H109" s="23" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3024,53 +3027,53 @@
       <c r="A110" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B110" s="36" t="s">
+      <c r="B110" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
-      <c r="E110" s="39"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="40"/>
-      <c r="H110" s="29"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="23"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="37"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
+      <c r="A111" s="21"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="36" t="s">
+      <c r="B112" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
-      <c r="E112" s="39"/>
-      <c r="F112" s="20" t="s">
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="G112" s="42"/>
+      <c r="G112" s="28"/>
       <c r="H112" s="12"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C113" s="38"/>
-      <c r="D113" s="38"/>
-      <c r="E113" s="39"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="42"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="28"/>
       <c r="H113" s="12"/>
     </row>
     <row r="114" spans="1:8">
@@ -3087,29 +3090,29 @@
       <c r="A115" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B115" s="36" t="s">
+      <c r="B115" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="20" t="s">
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G115" s="42"/>
+      <c r="G115" s="28"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B116" s="36" t="s">
+      <c r="B116" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="42"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="28"/>
       <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8">
@@ -3119,43 +3122,43 @@
       <c r="A118" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C118" s="38"/>
-      <c r="D118" s="38"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="30" t="s">
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G118" s="40"/>
+      <c r="G118" s="35"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B119" s="36" t="s">
+      <c r="B119" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C119" s="38"/>
-      <c r="D119" s="38"/>
-      <c r="E119" s="39"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="40"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="35"/>
       <c r="H119" s="12"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B120" s="36" t="s">
+      <c r="B120" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C120" s="38"/>
-      <c r="D120" s="38"/>
-      <c r="E120" s="39"/>
-      <c r="F120" s="30"/>
-      <c r="G120" s="40"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="35"/>
       <c r="H120" s="12"/>
     </row>
     <row r="121" spans="1:8">
@@ -3172,29 +3175,29 @@
       <c r="A122" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B122" s="36" t="s">
+      <c r="B122" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C122" s="38"/>
-      <c r="D122" s="38"/>
-      <c r="E122" s="39"/>
-      <c r="F122" s="20" t="s">
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G122" s="42"/>
+      <c r="G122" s="28"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B123" s="36" t="s">
+      <c r="B123" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C123" s="38"/>
-      <c r="D123" s="38"/>
-      <c r="E123" s="39"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="42"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="28"/>
       <c r="H123" s="12"/>
     </row>
     <row r="124" spans="1:8">
@@ -3204,128 +3207,128 @@
       <c r="A125" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B125" s="36" t="s">
+      <c r="B125" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C125" s="38"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="39"/>
-      <c r="F125" s="30" t="s">
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G125" s="40"/>
+      <c r="G125" s="35"/>
       <c r="H125" s="12"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B126" s="36" t="s">
+      <c r="B126" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C126" s="38"/>
-      <c r="D126" s="38"/>
-      <c r="E126" s="39"/>
-      <c r="F126" s="30"/>
-      <c r="G126" s="40"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="35"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B127" s="36" t="s">
+      <c r="B127" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C127" s="38"/>
-      <c r="D127" s="38"/>
-      <c r="E127" s="39"/>
-      <c r="F127" s="30"/>
-      <c r="G127" s="40"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="35"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="36" t="s">
+      <c r="B129" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C129" s="38"/>
-      <c r="D129" s="38"/>
-      <c r="E129" s="39"/>
-      <c r="F129" s="20" t="s">
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G129" s="42"/>
+      <c r="G129" s="28"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B130" s="36" t="s">
+      <c r="B130" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C130" s="38"/>
-      <c r="D130" s="38"/>
-      <c r="E130" s="39"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="42"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="28"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B132" s="36" t="s">
+      <c r="B132" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C132" s="38"/>
-      <c r="D132" s="38"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="31" t="s">
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G132" s="43"/>
+      <c r="G132" s="33"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="36" t="s">
+      <c r="B133" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C133" s="38"/>
-      <c r="D133" s="38"/>
-      <c r="E133" s="39"/>
-      <c r="F133" s="31"/>
-      <c r="G133" s="43"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="33"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B134" s="36" t="s">
+      <c r="B134" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C134" s="38"/>
-      <c r="D134" s="38"/>
-      <c r="E134" s="39"/>
-      <c r="F134" s="31"/>
-      <c r="G134" s="43"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="33"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B136" s="36" t="s">
+      <c r="B136" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C136" s="38"/>
-      <c r="D136" s="38"/>
-      <c r="E136" s="39"/>
-      <c r="F136" s="31" t="s">
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="G136" s="43"/>
-      <c r="H136" s="29" t="s">
+      <c r="G136" s="33"/>
+      <c r="H136" s="23" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3333,34 +3336,233 @@
       <c r="A137" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B137" s="36" t="s">
+      <c r="B137" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C137" s="38"/>
-      <c r="D137" s="38"/>
-      <c r="E137" s="39"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="43"/>
-      <c r="H137" s="29"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="23"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="B139" s="21"/>
-      <c r="C139" s="21"/>
-      <c r="D139" s="21"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
       <c r="E139" s="12"/>
       <c r="F139" s="13"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="B140" s="27"/>
-      <c r="C140" s="27"/>
-      <c r="D140" s="27"/>
+      <c r="B140" s="30"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
       <c r="E140" s="13"/>
-      <c r="F140" s="24"/>
-      <c r="G140" s="24"/>
+      <c r="F140" s="31"/>
+      <c r="G140" s="31"/>
       <c r="H140" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="223">
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:G52"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:G59"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="F54:G55"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:G73"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:G66"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:G69"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:G45"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:G49"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="O17:P19"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:G26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F13:G15"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:P29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="O24:P26"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O13:P15"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="J42:P42"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="O44:P45"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="O68:P70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="O72:P73"/>
+    <mergeCell ref="O75:P77"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="O51:P53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O55:P56"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="O58:P60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="O62:P63"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="O47:P49"/>
+    <mergeCell ref="Q58:Q60"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="O79:P80"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="O82:P84"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="O86:P87"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="F91:G92"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="F94:G96"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="F98:G100"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="F102:G103"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="F125:G127"/>
+    <mergeCell ref="B126:E126"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="F105:G107"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="F109:G110"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="F115:G116"/>
+    <mergeCell ref="B116:E116"/>
     <mergeCell ref="H109:H110"/>
     <mergeCell ref="B113:E113"/>
     <mergeCell ref="F112:G113"/>
@@ -3385,205 +3587,6 @@
     <mergeCell ref="B120:E120"/>
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="F122:G123"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="B125:E125"/>
-    <mergeCell ref="F125:G127"/>
-    <mergeCell ref="B126:E126"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="F105:G107"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="F109:G110"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="F115:G116"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="F94:G96"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="F98:G100"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="F102:G103"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="A89:G89"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="F91:G92"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="O79:P80"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="O82:P84"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="O86:P87"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="O51:P53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O55:P56"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="O58:P60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="O68:P70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="O72:P73"/>
-    <mergeCell ref="O75:P77"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="O62:P63"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="O47:P49"/>
-    <mergeCell ref="Q58:Q60"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="J42:P42"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="O44:P45"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F13:G15"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:P29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="O24:P26"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="O13:P15"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="O17:P19"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:G26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:G45"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:G49"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F64:G66"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:G69"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:G52"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="F57:G59"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="F54:G55"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:G73"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:E73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/2 semester/LogicBase/WorkSpace/Lab7/idk.xlsx
+++ b/2 semester/LogicBase/WorkSpace/Lab7/idk.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="120">
   <si>
     <t>A</t>
   </si>
@@ -370,6 +370,12 @@
   </si>
   <si>
     <t>4(A - B / 4 + B + C/4)</t>
+  </si>
+  <si>
+    <t>Переполнение при A - B / 4 - B + C/4</t>
+  </si>
+  <si>
+    <t>Переполнение при 4(A - B / 4 + B + C/4)</t>
   </si>
 </sst>
 </file>
@@ -539,8 +545,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -551,56 +599,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:P34"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S79" sqref="S79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -909,25 +915,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="4"/>
@@ -947,26 +953,26 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="18"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
     </row>
     <row r="4" spans="1:17">
       <c r="B4" t="s">
@@ -975,12 +981,12 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="10"/>
       <c r="K4" t="s">
         <v>3</v>
@@ -988,12 +994,12 @@
       <c r="L4" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -1008,9 +1014,9 @@
       <c r="D5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
       <c r="H5" s="10"/>
       <c r="J5" t="s">
         <v>0</v>
@@ -1024,9 +1030,9 @@
       <c r="M5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
@@ -1041,9 +1047,9 @@
       <c r="D6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="10"/>
       <c r="J6" t="s">
         <v>1</v>
@@ -1057,9 +1063,9 @@
       <c r="M6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
@@ -1074,9 +1080,9 @@
       <c r="D7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="10"/>
       <c r="J7" t="s">
         <v>2</v>
@@ -1090,429 +1096,429 @@
       <c r="M7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="10"/>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="27" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="9"/>
       <c r="J10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="27" t="s">
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="29"/>
+      <c r="P10" s="24"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="29"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="9"/>
       <c r="J11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="29"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="24"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="34" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="9"/>
       <c r="J13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="34" t="s">
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="29"/>
+      <c r="P13" s="24"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="29"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="9"/>
       <c r="J14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="29"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="24"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="29"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
       <c r="J15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="29"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="34" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="29"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="9"/>
       <c r="J17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="34" t="s">
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="P17" s="29"/>
+      <c r="P17" s="24"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="29"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="9"/>
       <c r="J18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="29"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="24"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="29"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="9"/>
       <c r="J19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="29"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="24"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="27" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="9"/>
       <c r="J21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="27" t="s">
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P21" s="29"/>
+      <c r="P21" s="24"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="29"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="9"/>
       <c r="J22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="29"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="24"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="34" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="9"/>
       <c r="J24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="34" t="s">
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="P24" s="29"/>
+      <c r="P24" s="24"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="29"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="9"/>
       <c r="J25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="39" t="s">
+      <c r="K25" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="29"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="24"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="29"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="9"/>
       <c r="J26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="39" t="s">
+      <c r="K26" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="29"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="24"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="34" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="9"/>
       <c r="J28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="39" t="s">
+      <c r="K28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="34" t="s">
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="P28" s="29"/>
+      <c r="P28" s="24"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="29"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="9"/>
       <c r="J29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="39" t="s">
+      <c r="K29" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="29"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="24"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="2"/>
@@ -1532,22 +1538,22 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="29" t="s">
+      <c r="K31" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
       <c r="N31" s="7" t="s">
         <v>33</v>
       </c>
@@ -1559,11 +1565,11 @@
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="1">
         <v>18</v>
       </c>
@@ -1576,22 +1582,22 @@
       <c r="K32" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
     </row>
     <row r="33" spans="1:17">
       <c r="K33" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
     </row>
     <row r="34" spans="1:17">
       <c r="K34" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
       <c r="N34" s="1">
         <v>-32</v>
       </c>
@@ -1603,25 +1609,25 @@
       <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="J37" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="J37" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
       <c r="Q37" s="20"/>
     </row>
     <row r="38" spans="1:17">
@@ -1631,12 +1637,12 @@
       <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
       <c r="H38" s="10"/>
       <c r="K38" t="s">
         <v>3</v>
@@ -1644,12 +1650,12 @@
       <c r="L38" t="s">
         <v>4</v>
       </c>
-      <c r="M38" s="36" t="s">
+      <c r="M38" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
       <c r="Q38" s="13"/>
     </row>
     <row r="39" spans="1:17">
@@ -1665,9 +1671,9 @@
       <c r="D39" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
       <c r="H39" s="10"/>
       <c r="J39" t="s">
         <v>0</v>
@@ -1681,9 +1687,9 @@
       <c r="M39" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
       <c r="Q39" s="13"/>
     </row>
     <row r="40" spans="1:17">
@@ -1699,9 +1705,9 @@
       <c r="D40" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
       <c r="H40" s="10"/>
       <c r="J40" t="s">
         <v>1</v>
@@ -1715,9 +1721,9 @@
       <c r="M40" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
       <c r="Q40" s="13"/>
     </row>
     <row r="41" spans="1:17">
@@ -1733,9 +1739,9 @@
       <c r="D41" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
       <c r="H41" s="10"/>
       <c r="J41" t="s">
         <v>2</v>
@@ -1749,169 +1755,169 @@
       <c r="M41" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
       <c r="Q41" s="13"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
       <c r="H42" s="10"/>
-      <c r="J42" s="36" t="s">
+      <c r="J42" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
       <c r="Q42" s="13"/>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="27" t="s">
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="29"/>
+      <c r="G44" s="24"/>
       <c r="H44" s="9"/>
       <c r="J44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K44" s="39" t="s">
+      <c r="K44" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="27" t="s">
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P44" s="29"/>
+      <c r="P44" s="24"/>
       <c r="Q44" s="12"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="29"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24"/>
       <c r="H45" s="9"/>
       <c r="J45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K45" s="39" t="s">
+      <c r="K45" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="29"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="24"/>
       <c r="Q45" s="12"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="34" t="s">
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="23" t="s">
+      <c r="G47" s="24"/>
+      <c r="H47" s="32" t="s">
         <v>56</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="39" t="s">
+      <c r="K47" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="34" t="s">
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="P47" s="29"/>
+      <c r="P47" s="24"/>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="23"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="32"/>
       <c r="J48" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K48" s="39" t="s">
+      <c r="K48" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="29"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="24"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="23"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="32"/>
       <c r="J49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K49" s="39" t="s">
+      <c r="K49" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="29"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="24"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="14"/>
@@ -1936,56 +1942,56 @@
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="27" t="s">
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G51" s="29"/>
+      <c r="G51" s="24"/>
       <c r="H51" s="9"/>
       <c r="J51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K51" s="39" t="s">
+      <c r="K51" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="34" t="s">
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="P51" s="29"/>
+      <c r="P51" s="24"/>
       <c r="Q51" s="12"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="29"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="24"/>
       <c r="H52" s="9"/>
       <c r="J52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="39" t="s">
+      <c r="K52" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="29"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="24"/>
       <c r="Q52" s="12"/>
     </row>
     <row r="53" spans="1:17" s="2" customFormat="1">
@@ -2000,30 +2006,30 @@
       <c r="J53" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K53" s="39" t="s">
+      <c r="K53" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="29"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="24"/>
       <c r="Q53" s="6"/>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="27" t="s">
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="29"/>
+      <c r="G54" s="24"/>
       <c r="H54" s="9"/>
       <c r="Q54" s="12"/>
     </row>
@@ -2031,57 +2037,57 @@
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="29"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
       <c r="H55" s="9"/>
       <c r="J55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K55" s="39" t="s">
+      <c r="K55" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="27" t="s">
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P55" s="29"/>
+      <c r="P55" s="24"/>
       <c r="Q55" s="12"/>
     </row>
     <row r="56" spans="1:17">
       <c r="J56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K56" s="39" t="s">
+      <c r="K56" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="29"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="24"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="34" t="s">
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="G57" s="29"/>
+      <c r="G57" s="24"/>
       <c r="H57" s="9"/>
       <c r="Q57" s="12"/>
     </row>
@@ -2089,29 +2095,29 @@
       <c r="A58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="29"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="24"/>
       <c r="H58" s="9"/>
       <c r="J58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K58" s="39" t="s">
+      <c r="K58" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="34" t="s">
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="23" t="s">
+      <c r="P58" s="24"/>
+      <c r="Q58" s="32" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2119,27 +2125,27 @@
       <c r="A59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="29"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="24"/>
       <c r="H59" s="9"/>
       <c r="J59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K59" s="39" t="s">
+      <c r="K59" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="23"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="32"/>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="14"/>
@@ -2153,30 +2159,30 @@
       <c r="J60" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K60" s="39" t="s">
+      <c r="K60" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="23"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="32"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="27" t="s">
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G61" s="29"/>
+      <c r="G61" s="24"/>
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
@@ -2189,28 +2195,28 @@
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="29"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
       <c r="H62" s="9"/>
       <c r="J62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K62" s="39" t="s">
+      <c r="K62" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="27" t="s">
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P62" s="29"/>
+      <c r="P62" s="24"/>
       <c r="Q62" s="12"/>
     </row>
     <row r="63" spans="1:17">
@@ -2218,30 +2224,30 @@
       <c r="J63" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K63" s="39" t="s">
+      <c r="K63" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="29"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="24"/>
       <c r="Q63" s="12"/>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="34" t="s">
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G64" s="29"/>
+      <c r="G64" s="24"/>
       <c r="H64" s="9"/>
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
@@ -2256,52 +2262,52 @@
       <c r="A65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="29"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="24"/>
       <c r="J65" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K65" s="39" t="s">
+      <c r="K65" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="27" t="s">
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P65" s="29"/>
+      <c r="P65" s="24"/>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="29"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="24"/>
       <c r="H66" s="9"/>
       <c r="J66" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K66" s="39" t="s">
+      <c r="K66" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="29"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="24"/>
       <c r="Q66" s="12"/>
     </row>
     <row r="67" spans="1:17">
@@ -2312,54 +2318,54 @@
       <c r="A68" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="27" t="s">
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G68" s="29"/>
+      <c r="G68" s="24"/>
       <c r="J68" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K68" s="39" t="s">
+      <c r="K68" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="34" t="s">
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="P68" s="29"/>
+      <c r="P68" s="24"/>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="29"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="24"/>
       <c r="H69" s="9"/>
       <c r="J69" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K69" s="39" t="s">
+      <c r="K69" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="29"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="24"/>
       <c r="Q69" s="12"/>
     </row>
     <row r="70" spans="1:17">
@@ -2367,30 +2373,30 @@
       <c r="J70" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K70" s="39" t="s">
+      <c r="K70" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="L70" s="40"/>
-      <c r="M70" s="40"/>
-      <c r="N70" s="40"/>
-      <c r="O70" s="27"/>
-      <c r="P70" s="29"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="24"/>
       <c r="Q70" s="12"/>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="32" t="s">
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G71" s="41"/>
+      <c r="G71" s="35"/>
       <c r="H71" s="9"/>
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
@@ -2405,52 +2411,52 @@
       <c r="A72" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="41"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="35"/>
       <c r="J72" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K72" s="39" t="s">
+      <c r="K72" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="27" t="s">
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="P72" s="29"/>
+      <c r="P72" s="24"/>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="41"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="35"/>
       <c r="H73" s="9"/>
       <c r="J73" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K73" s="39" t="s">
+      <c r="K73" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="L73" s="40"/>
-      <c r="M73" s="40"/>
-      <c r="N73" s="40"/>
-      <c r="O73" s="27"/>
-      <c r="P73" s="29"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="23"/>
+      <c r="P73" s="24"/>
       <c r="Q73" s="12"/>
     </row>
     <row r="74" spans="1:17">
@@ -2461,55 +2467,55 @@
       <c r="A75" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="39" t="s">
+      <c r="B75" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="32" t="s">
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G75" s="41"/>
+      <c r="G75" s="35"/>
       <c r="H75" s="9"/>
       <c r="J75" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K75" s="39" t="s">
+      <c r="K75" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="40"/>
-      <c r="O75" s="34" t="s">
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P75" s="29"/>
+      <c r="P75" s="24"/>
       <c r="Q75" s="12"/>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="41"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="35"/>
       <c r="J76" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K76" s="39" t="s">
+      <c r="K76" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="27"/>
-      <c r="P76" s="29"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="24"/>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="2"/>
@@ -2522,21 +2528,21 @@
       <c r="J77" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K77" s="39" t="s">
+      <c r="K77" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="L77" s="40"/>
-      <c r="M77" s="40"/>
-      <c r="N77" s="40"/>
-      <c r="O77" s="27"/>
-      <c r="P77" s="29"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="24"/>
     </row>
     <row r="78" spans="1:17">
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="9" t="s">
         <v>33</v>
       </c>
@@ -2551,53 +2557,53 @@
       <c r="B79" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
       <c r="J79" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K79" s="39" t="s">
+      <c r="K79" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="L79" s="40"/>
-      <c r="M79" s="40"/>
-      <c r="N79" s="40"/>
-      <c r="O79" s="27" t="s">
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="P79" s="29"/>
+      <c r="P79" s="24"/>
     </row>
     <row r="80" spans="1:17">
       <c r="B80" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
       <c r="J80" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K80" s="39" t="s">
+      <c r="K80" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="L80" s="40"/>
-      <c r="M80" s="40"/>
-      <c r="N80" s="40"/>
-      <c r="O80" s="27"/>
-      <c r="P80" s="29"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="23"/>
+      <c r="P80" s="24"/>
     </row>
     <row r="81" spans="1:17">
       <c r="B81" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
       <c r="E81" s="10">
         <v>-5330</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="F81" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G81" s="31"/>
+      <c r="G81" s="27"/>
       <c r="H81" s="19" t="s">
         <v>76</v>
       </c>
@@ -2606,52 +2612,52 @@
       <c r="J82" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K82" s="39" t="s">
+      <c r="K82" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="L82" s="40"/>
-      <c r="M82" s="40"/>
-      <c r="N82" s="40"/>
-      <c r="O82" s="32" t="s">
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="P82" s="41"/>
+      <c r="P82" s="35"/>
     </row>
     <row r="83" spans="1:17">
       <c r="J83" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K83" s="39" t="s">
+      <c r="K83" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="L83" s="40"/>
-      <c r="M83" s="40"/>
-      <c r="N83" s="40"/>
-      <c r="O83" s="42"/>
-      <c r="P83" s="41"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="35"/>
     </row>
     <row r="84" spans="1:17">
-      <c r="A84" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
+      <c r="A84" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
       <c r="H84" s="20"/>
       <c r="J84" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K84" s="39" t="s">
+      <c r="K84" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="L84" s="40"/>
-      <c r="M84" s="40"/>
-      <c r="N84" s="40"/>
-      <c r="O84" s="42"/>
-      <c r="P84" s="41"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="35"/>
     </row>
     <row r="85" spans="1:17">
       <c r="B85" t="s">
@@ -2660,12 +2666,12 @@
       <c r="C85" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="36" t="s">
+      <c r="D85" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
       <c r="H85" s="13"/>
     </row>
     <row r="86" spans="1:17">
@@ -2688,16 +2694,16 @@
       <c r="J86" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K86" s="39" t="s">
+      <c r="K86" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="L86" s="40"/>
-      <c r="M86" s="40"/>
-      <c r="N86" s="40"/>
-      <c r="O86" s="32" t="s">
+      <c r="L86" s="26"/>
+      <c r="M86" s="26"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="P86" s="41"/>
+      <c r="P86" s="35"/>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" t="s">
@@ -2719,14 +2725,14 @@
       <c r="J87" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K87" s="39" t="s">
+      <c r="K87" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="L87" s="40"/>
-      <c r="M87" s="40"/>
-      <c r="N87" s="40"/>
-      <c r="O87" s="42"/>
-      <c r="P87" s="41"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="35"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" t="s">
@@ -2747,21 +2753,21 @@
       <c r="H88" s="13"/>
     </row>
     <row r="89" spans="1:17">
-      <c r="A89" s="36" t="s">
+      <c r="A89" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
       <c r="H89" s="13"/>
-      <c r="K89" s="29" t="s">
+      <c r="K89" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L89" s="29"/>
-      <c r="M89" s="29"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
       <c r="N89" s="12" t="s">
         <v>33</v>
       </c>
@@ -2776,15 +2782,15 @@
       <c r="K90" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36"/>
+      <c r="L90" s="31"/>
+      <c r="M90" s="31"/>
       <c r="N90" s="13">
         <v>10992</v>
       </c>
-      <c r="O90" s="31" t="s">
+      <c r="O90" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="31"/>
+      <c r="P90" s="27"/>
       <c r="Q90" s="19" t="s">
         <v>97</v>
       </c>
@@ -2793,78 +2799,78 @@
       <c r="A91" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="24" t="s">
+      <c r="B91" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="27" t="s">
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="28"/>
+      <c r="G91" s="41"/>
       <c r="H91" s="12"/>
       <c r="K91" s="30"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36"/>
+      <c r="L91" s="31"/>
+      <c r="M91" s="31"/>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="28"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="41"/>
       <c r="H92" s="12"/>
       <c r="K92" s="30"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="34" t="s">
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G94" s="35"/>
+      <c r="G94" s="42"/>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="24" t="s">
+      <c r="B95" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="35"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="42"/>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="35"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="42"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="14"/>
@@ -2880,44 +2886,44 @@
       <c r="A98" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="B98" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="34" t="s">
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G98" s="35"/>
+      <c r="G98" s="42"/>
       <c r="H98" s="12"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B99" s="24" t="s">
+      <c r="B99" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="35"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="42"/>
       <c r="H99" s="12"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="24" t="s">
+      <c r="B100" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="35"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="42"/>
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8">
@@ -2927,30 +2933,30 @@
       <c r="A102" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="B102" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="27" t="s">
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G102" s="28"/>
+      <c r="G102" s="41"/>
       <c r="H102" s="12"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B103" s="24" t="s">
+      <c r="B103" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="28"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="41"/>
     </row>
     <row r="104" spans="1:8">
       <c r="H104" s="12"/>
@@ -2959,42 +2965,42 @@
       <c r="A105" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B105" s="24" t="s">
+      <c r="B105" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="34" t="s">
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G105" s="35"/>
+      <c r="G105" s="42"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B106" s="24" t="s">
+      <c r="B106" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="35"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="42"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="B107" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="35"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="42"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2"/>
@@ -3009,17 +3015,17 @@
       <c r="A109" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B109" s="24" t="s">
+      <c r="B109" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G109" s="35"/>
-      <c r="H109" s="23" t="s">
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G109" s="42"/>
+      <c r="H109" s="32" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3027,15 +3033,15 @@
       <c r="A110" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B110" s="24" t="s">
+      <c r="B110" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="23"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="32"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="21"/>
@@ -3050,30 +3056,30 @@
       <c r="A112" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="27" t="s">
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="40"/>
+      <c r="F112" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G112" s="28"/>
+      <c r="G112" s="41"/>
       <c r="H112" s="12"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B113" s="24" t="s">
+      <c r="B113" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="28"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="40"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="41"/>
       <c r="H113" s="12"/>
     </row>
     <row r="114" spans="1:8">
@@ -3090,29 +3096,29 @@
       <c r="A115" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B115" s="24" t="s">
+      <c r="B115" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="27" t="s">
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="40"/>
+      <c r="F115" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G115" s="28"/>
+      <c r="G115" s="41"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B116" s="24" t="s">
+      <c r="B116" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="28"/>
+      <c r="C116" s="39"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="41"/>
       <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8">
@@ -3122,43 +3128,43 @@
       <c r="A118" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="24" t="s">
+      <c r="B118" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="26"/>
-      <c r="F118" s="34" t="s">
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="40"/>
+      <c r="F118" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="G118" s="35"/>
+      <c r="G118" s="42"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B119" s="24" t="s">
+      <c r="B119" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="26"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="35"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="40"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="42"/>
       <c r="H119" s="12"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B120" s="24" t="s">
+      <c r="B120" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="35"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="33"/>
+      <c r="G120" s="42"/>
       <c r="H120" s="12"/>
     </row>
     <row r="121" spans="1:8">
@@ -3175,29 +3181,29 @@
       <c r="A122" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B122" s="24" t="s">
+      <c r="B122" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="27" t="s">
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="40"/>
+      <c r="F122" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G122" s="28"/>
+      <c r="G122" s="41"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B123" s="24" t="s">
+      <c r="B123" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="28"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="40"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="41"/>
       <c r="H123" s="12"/>
     </row>
     <row r="124" spans="1:8">
@@ -3207,128 +3213,128 @@
       <c r="A125" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B125" s="24" t="s">
+      <c r="B125" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="26"/>
-      <c r="F125" s="34" t="s">
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="40"/>
+      <c r="F125" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G125" s="35"/>
+      <c r="G125" s="42"/>
       <c r="H125" s="12"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B126" s="24" t="s">
+      <c r="B126" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="34"/>
-      <c r="G126" s="35"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="42"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B127" s="24" t="s">
+      <c r="B127" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="34"/>
-      <c r="G127" s="35"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="40"/>
+      <c r="F127" s="33"/>
+      <c r="G127" s="42"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="24" t="s">
+      <c r="B129" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="27" t="s">
+      <c r="C129" s="39"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="40"/>
+      <c r="F129" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G129" s="28"/>
+      <c r="G129" s="41"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B130" s="24" t="s">
+      <c r="B130" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="28"/>
+      <c r="C130" s="39"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="40"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="41"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B132" s="24" t="s">
+      <c r="B132" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C132" s="25"/>
-      <c r="D132" s="25"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="32" t="s">
+      <c r="C132" s="39"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="40"/>
+      <c r="F132" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="G132" s="33"/>
+      <c r="G132" s="43"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="24" t="s">
+      <c r="B133" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C133" s="25"/>
-      <c r="D133" s="25"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="32"/>
-      <c r="G133" s="33"/>
+      <c r="C133" s="39"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="40"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="43"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B134" s="24" t="s">
+      <c r="B134" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C134" s="25"/>
-      <c r="D134" s="25"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="32"/>
-      <c r="G134" s="33"/>
+      <c r="C134" s="39"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="40"/>
+      <c r="F134" s="34"/>
+      <c r="G134" s="43"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B136" s="24" t="s">
+      <c r="B136" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="26"/>
-      <c r="F136" s="32" t="s">
+      <c r="C136" s="39"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="40"/>
+      <c r="F136" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G136" s="33"/>
-      <c r="H136" s="23" t="s">
+      <c r="G136" s="43"/>
+      <c r="H136" s="32" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3336,20 +3342,20 @@
       <c r="A137" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B137" s="24" t="s">
+      <c r="B137" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C137" s="25"/>
-      <c r="D137" s="25"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="23"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="40"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="43"/>
+      <c r="H137" s="32"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="B139" s="29"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="29"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
       <c r="E139" s="12"/>
       <c r="F139" s="13"/>
     </row>
@@ -3358,12 +3364,211 @@
       <c r="C140" s="30"/>
       <c r="D140" s="30"/>
       <c r="E140" s="13"/>
-      <c r="F140" s="31"/>
-      <c r="G140" s="31"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="27"/>
       <c r="H140" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="223">
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F112:G113"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="F129:G130"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="F132:G134"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="F136:G137"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="F118:G120"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:G123"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="F125:G127"/>
+    <mergeCell ref="B126:E126"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="F105:G107"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="F109:G110"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="F115:G116"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="F94:G96"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="F98:G100"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="F102:G103"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="F91:G92"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="O79:P80"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="O82:P84"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="O86:P87"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="O51:P53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O55:P56"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="O58:P60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="O62:P63"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="O47:P49"/>
+    <mergeCell ref="Q58:Q60"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="O68:P70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="O72:P73"/>
+    <mergeCell ref="O75:P77"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="J42:P42"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="O44:P45"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F13:G15"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:P29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="O24:P26"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O13:P15"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:G45"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:G49"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="O17:P19"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:G26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:G66"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:G69"/>
+    <mergeCell ref="B69:E69"/>
     <mergeCell ref="F61:G62"/>
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="F81:G81"/>
@@ -3388,205 +3593,6 @@
     <mergeCell ref="F71:G73"/>
     <mergeCell ref="B72:E72"/>
     <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F64:G66"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:G69"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:G45"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:G49"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="O17:P19"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:G26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F13:G15"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:P29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="O24:P26"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="O13:P15"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="J42:P42"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="O44:P45"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="O68:P70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="O72:P73"/>
-    <mergeCell ref="O75:P77"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="O51:P53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O55:P56"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="O58:P60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="O62:P63"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="O47:P49"/>
-    <mergeCell ref="Q58:Q60"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="O79:P80"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="O82:P84"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="O86:P87"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="A89:G89"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="F91:G92"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="F94:G96"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="F98:G100"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="F102:G103"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="B125:E125"/>
-    <mergeCell ref="F125:G127"/>
-    <mergeCell ref="B126:E126"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="F105:G107"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="F109:G110"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="F115:G116"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="F112:G113"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="F129:G130"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="F132:G134"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="F136:G137"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="F118:G120"/>
-    <mergeCell ref="B119:E119"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:G123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
